--- a/music-warehouse/scripts/04_机器营收统计/04-机器营收统计.xlsx
+++ b/music-warehouse/scripts/04_机器营收统计/04-机器营收统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="13350" tabRatio="805"/>
+    <workbookView windowHeight="15520" tabRatio="805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ODS" sheetId="23" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
     <t>物理模型名称</t>
   </si>
@@ -982,10 +982,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1036,6 +1036,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.5"/>
       <color theme="1"/>
@@ -1049,13 +1055,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1070,22 +1069,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,22 +1102,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,16 +1115,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,15 +1132,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,11 +1177,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1191,11 +1192,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1232,7 +1232,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,7 +1358,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,163 +1412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,20 +1571,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1604,17 +1623,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,23 +1661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,157 +1671,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,93 +1946,93 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 3" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="31"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
+    <cellStyle name="标题" xfId="35" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
+    <cellStyle name="注释" xfId="39" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2326,24 +2326,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="A1:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="36.125" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="59.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="71.3461538461538" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="16.5" spans="1:5">
+    <row r="1" s="42" customFormat="1" ht="14.4" spans="1:5">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -2356,15 +2356,15 @@
       <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="42" customFormat="1" ht="16.5" spans="1:5">
+    <row r="2" s="42" customFormat="1" ht="15" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2373,11 +2373,11 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="40" customFormat="1" ht="16.5" spans="1:5">
+    <row r="3" s="41" customFormat="1" ht="14.4" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="40" customFormat="1" ht="16.5" spans="1:5">
+    <row r="4" s="41" customFormat="1" ht="14.4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="40" customFormat="1" ht="16.5" spans="1:5">
+    <row r="5" s="41" customFormat="1" ht="14.4" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="40" customFormat="1" ht="16.5" spans="1:5">
+    <row r="6" s="41" customFormat="1" ht="14.4" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" s="40" customFormat="1" ht="16.5" spans="1:5">
+    <row r="7" s="41" customFormat="1" ht="14.4" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="40" customFormat="1" ht="16.5" spans="1:5">
+    <row r="8" s="41" customFormat="1" ht="14.4" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:5">
+    <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
@@ -2482,335 +2482,355 @@
       </c>
       <c r="E9" s="35"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="1:4">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-    </row>
-    <row r="12" s="42" customFormat="1" ht="16.5" spans="1:5">
+    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" s="42" customFormat="1" ht="14.4" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" s="42" customFormat="1" ht="14.4" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" s="42" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E12" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" s="40" customFormat="1" ht="16.5" spans="1:5">
+    <row r="13" s="41" customFormat="1" ht="14.4" spans="1:5">
+      <c r="A13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" s="41" customFormat="1" ht="15" spans="1:5">
       <c r="A14" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" s="40" customFormat="1" ht="16.5" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" s="41" customFormat="1" spans="1:10">
       <c r="A15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" s="40" customFormat="1" ht="16.5" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" s="41" customFormat="1" spans="1:10">
       <c r="A16" s="28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A17" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>44</v>
+    <row r="17" s="41" customFormat="1" spans="1:10">
+      <c r="A17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>46</v>
+      <c r="D17" s="5"/>
+      <c r="E17" s="50" t="s">
+        <v>49</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A18" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>48</v>
+    <row r="18" s="41" customFormat="1" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="48" t="s">
-        <v>49</v>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>51</v>
+    <row r="19" s="41" customFormat="1" spans="1:10">
+      <c r="A19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>54</v>
+    <row r="20" s="41" customFormat="1" spans="1:10">
+      <c r="A20" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" s="40" customFormat="1" ht="17.25" spans="1:10">
-      <c r="A21" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>58</v>
+    <row r="21" s="41" customFormat="1" spans="1:10">
+      <c r="A21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>62</v>
+    <row r="22" s="41" customFormat="1" spans="1:10">
+      <c r="A22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" s="40" customFormat="1" ht="16.5" spans="1:10">
+    <row r="23" s="41" customFormat="1" spans="1:10">
       <c r="A23" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" s="40" customFormat="1" ht="16.5" spans="1:10">
+    <row r="24" s="41" customFormat="1" spans="1:10">
       <c r="A24" s="33" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>14</v>
+    <row r="25" s="41" customFormat="1" spans="1:10">
+      <c r="A25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" s="40" customFormat="1" ht="16.5" spans="1:10">
+    <row r="26" s="41" customFormat="1" spans="1:10">
       <c r="A26" s="21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A27" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>77</v>
+    <row r="27" s="41" customFormat="1" spans="1:10">
+      <c r="A27" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="48" t="s">
-        <v>78</v>
+      <c r="E27" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" s="40" customFormat="1" ht="16.5" spans="1:10">
+    <row r="28" s="41" customFormat="1" spans="1:10">
       <c r="A28" s="33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E28" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A29" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>83</v>
+    <row r="29" s="41" customFormat="1" spans="1:10">
+      <c r="A29" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2818,19 +2838,21 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A30" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>87</v>
+    <row r="30" s="41" customFormat="1" spans="1:10">
+      <c r="A30" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2838,21 +2860,19 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" s="40" customFormat="1" ht="17.25" spans="1:10">
-      <c r="A31" s="50" t="s">
-        <v>89</v>
+    <row r="31" s="41" customFormat="1" spans="1:10">
+      <c r="A31" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2860,19 +2880,21 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" s="40" customFormat="1" ht="17.25" spans="1:10">
-      <c r="A32" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>94</v>
+    <row r="32" s="41" customFormat="1" ht="17" customHeight="1" spans="1:10">
+      <c r="A32" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="E32" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2880,57 +2902,35 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" s="40" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A33" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>97</v>
+    <row r="33" s="41" customFormat="1" ht="15" spans="1:5">
+      <c r="A33" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>98</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" s="40" customFormat="1" ht="16.5" spans="1:5">
-      <c r="A34" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:5">
-      <c r="A35" s="23" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C34" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D34" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="35"/>
+      <c r="E34" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2939,18 +2939,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="2" max="2" width="26.3" customWidth="1"/>
+    <col min="2" max="2" width="26.2980769230769" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="91.25" customWidth="1"/>
   </cols>
@@ -2968,7 +2968,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -2983,7 +2983,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="30" t="s">
@@ -2996,7 +2996,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A4" s="33" t="s">
@@ -3009,7 +3009,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A5" s="30" t="s">
@@ -3022,7 +3022,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A6" s="28" t="s">
@@ -3035,7 +3035,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A7" s="28" t="s">
@@ -3050,7 +3050,7 @@
       <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A8" s="28" t="s">
@@ -3065,7 +3065,7 @@
       <c r="D8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="28" t="s">
@@ -3078,7 +3078,7 @@
         <v>59</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A10" s="33" t="s">
@@ -3091,7 +3091,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A11" s="25" t="s">
@@ -3106,7 +3106,7 @@
       <c r="D11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A12" s="25" t="s">
@@ -3119,7 +3119,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="28" t="s">
@@ -3132,7 +3132,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A14" s="28" t="s">
@@ -3145,7 +3145,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A15" s="28" t="s">
@@ -3160,7 +3160,7 @@
       <c r="D15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A16" s="28" t="s">
@@ -3175,7 +3175,7 @@
       <c r="D16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A17" s="28" t="s">
@@ -3188,7 +3188,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A18" s="28" t="s">
@@ -3203,7 +3203,7 @@
       <c r="D18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A19" s="25" t="s">
@@ -3218,7 +3218,7 @@
       <c r="D19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="23" t="s">
@@ -3234,156 +3234,168 @@
         <v>32</v>
       </c>
     </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>123</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A25" s="16" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A26" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A27" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="A27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A29" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="17"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A31" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>31</v>
+        <v>143</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="17"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A32" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A33" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A34" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>31</v>
@@ -3392,10 +3404,10 @@
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A35" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>31</v>
@@ -3403,23 +3415,23 @@
       <c r="D35" s="5"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A36" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>31</v>
+      <c r="A36" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>38</v>
@@ -3427,83 +3439,71 @@
       <c r="D37" s="5"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>156</v>
+      <c r="A38" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A39" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>157</v>
+        <v>129</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A40" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A41" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A42" s="23" t="s">
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C41" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D41" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" ht="16" customHeight="1"/>
+    <row r="42" ht="16" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G99"/>
   <sheetViews>
@@ -4685,13 +4685,13 @@
   <mergeCells count="1">
     <mergeCell ref="D9:D10"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4699,7 +4699,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="30.875" customWidth="1"/>
@@ -4707,7 +4707,7 @@
     <col min="4" max="4" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>298</v>
       </c>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>300</v>
       </c>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>302</v>
       </c>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>304</v>
       </c>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="9" s="1" customFormat="1" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>309</v>
       </c>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>312</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="11" s="1" customFormat="1" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>314</v>
       </c>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:4">
+    <row r="12" s="1" customFormat="1" spans="1:4">
       <c r="A12" s="5" t="s">
         <v>316</v>
       </c>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="15" spans="1:4">
+    <row r="13" s="2" customFormat="1" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>